--- a/mySystem/mySystem/xls/LDPEBag/10 SOP-MFG-108-R01A 制袋岗位交接班记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/10 SOP-MFG-108-R01A 制袋岗位交接班记录.xlsx
@@ -16,58 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>QC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产指令编号：</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,20 +47,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -153,19 +90,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班异常情况处理：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -187,114 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认现场环境卫生是否清洁、消毒。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认原料膜卷使用及质量情况。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认生产设备运行是否正常。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认工艺参数是否符合工艺要求。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认记录填写准确、真实和及时。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认产品质量是否符合工艺要求。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认交接本班生产数量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认工器具齐全，满足生产使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认本班发生的异常情况，并得到有效处理。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,62 +123,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接班人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间：</t>
-    </r>
+    <t>白班异常情况处理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交班人：                       接班人：                 时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交班人：                       接班人：                 时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,13 +189,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -446,6 +224,31 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -780,135 +583,132 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +728,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1217,235 +1017,165 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6" style="9" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="66.375" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="26.125" style="9"/>
+    <col min="1" max="1" width="6" style="6" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="66.375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="26.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="21.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
-        <v>5</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>6</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>7</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>8</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
-        <v>9</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="15" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="7.15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="5:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="19"/>
+      <c r="E17" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -1473,7 +1203,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
